--- a/leanCrm/data/physicalAreas/Predio/data/Predio.xlsx
+++ b/leanCrm/data/physicalAreas/Predio/data/Predio.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\leanCrm\data\physicalAreas\Predio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Predio" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Predio</t>
+  </si>
   <si>
     <t>nomenclatura</t>
   </si>
@@ -31,6 +40,9 @@
   </si>
   <si>
     <t>matricula</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
   <si>
     <t>C 26 22 138</t>
@@ -60,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,7 +579,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -651,9 +663,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -686,9 +698,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -868,7 +880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -876,65 +888,87 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/leanCrm/data/physicalAreas/Predio/data/Predio.xlsx
+++ b/leanCrm/data/physicalAreas/Predio/data/Predio.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>String</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>APTO 202</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>A201</t>
+  </si>
+  <si>
+    <t>A202</t>
+  </si>
+  <si>
+    <t>CL26</t>
   </si>
 </sst>
 </file>
@@ -880,18 +904,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,67 +929,97 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
